--- a/Report/ReportTasks.xlsx
+++ b/Report/ReportTasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisa\Documents\MasterIS\project\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAEC2358-A461-42C6-9235-BA3251F2A7C3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{688C1CBF-1103-48ED-88AD-54D0A97CC869}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13224" windowHeight="5640" xr2:uid="{BABE158B-615F-4D90-8C66-F52353E53093}"/>
   </bookViews>
@@ -134,12 +134,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -154,10 +166,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -475,7 +489,7 @@
   <dimension ref="A2:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -514,19 +528,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="6" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="E6" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -559,11 +573,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="12" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -588,14 +602,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row r="16" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="B16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>6</v>
       </c>
     </row>
